--- a/biology/Botanique/Ail_des_champs/Ail_des_champs.xlsx
+++ b/biology/Botanique/Ail_des_champs/Ail_des_champs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium oleraceum
 L'Ail des jardins ou ail des champs (Allium oleraceum) est une espèce de plantes herbacées vivaces de la famille des Liliaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante à bulbe à tige solitaire.
 Les feuilles sont linéaires engainant la moitié inférieure de la tige. La spathe qui entoure l'ombelle avant floraison s'ouvre en formant deux valves allongées.
@@ -545,7 +559,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs :
 Type d'inflorescence : ombelle simple
@@ -582,7 +598,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Habitat type : pelouses basophiles médioeuropéennes, bords des chemins, haies
 Aire de répartition : eurasiatique tempéré
@@ -615,7 +633,9 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas considérée comme étant menacée en France. En 2021 elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
 Toutefois localement l'espèce peut se raréfier : elle est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, dans la région Haute-Normandie ; elle est considérée Vulnérable (VU) en Haute-Normandie.
